--- a/xlsx/country_comparison/foreign_aid_amount_median.xlsx
+++ b/xlsx/country_comparison/foreign_aid_amount_median.xlsx
@@ -403,9 +403,7 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.4</v>
-      </c>
+      <c r="B2"/>
       <c r="C2" t="n">
         <v>1.3</v>
       </c>
@@ -476,7 +474,7 @@
         <v>2.2</v>
       </c>
       <c r="E5" t="n">
-        <v>3.35</v>
+        <v>2.2</v>
       </c>
       <c r="F5" t="n">
         <v>1.4</v>

--- a/xlsx/country_comparison/foreign_aid_amount_median.xlsx
+++ b/xlsx/country_comparison/foreign_aid_amount_median.xlsx
@@ -403,7 +403,9 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="n">
+        <v>0.4</v>
+      </c>
       <c r="C2" t="n">
         <v>1.3</v>
       </c>
@@ -424,7 +426,9 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="n">
+        <v>3.35</v>
+      </c>
       <c r="C3" t="n">
         <v>1.4</v>
       </c>
@@ -445,7 +449,9 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" t="n">
+        <v>0.4</v>
+      </c>
       <c r="C4" t="n">
         <v>1.4</v>
       </c>
@@ -466,7 +472,9 @@
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" t="n">
+        <v>2.2</v>
+      </c>
       <c r="C5" t="n">
         <v>2.2</v>
       </c>

--- a/xlsx/country_comparison/foreign_aid_amount_median.xlsx
+++ b/xlsx/country_comparison/foreign_aid_amount_median.xlsx
@@ -427,7 +427,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>3.35</v>
+        <v>2.2</v>
       </c>
       <c r="C3" t="n">
         <v>1.4</v>
